--- a/qual/data/AFG_asylum-decisions.xlsx
+++ b/qual/data/AFG_asylum-decisions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianakalainoff/Desktop/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianakalainoff/Documents/GitHub/major-studio/qual/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E22DA8-68EB-654F-B460-E553AA683317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAAA888-A908-0242-AE6E-8735985BCC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="asylum-decisions" sheetId="1" r:id="rId1"/>
@@ -1479,13 +1479,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M611"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A537" sqref="A537:XFD537"/>
+    <sheetView tabSelected="1" topLeftCell="A593" workbookViewId="0">
+      <selection activeCell="D618" sqref="D618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" customWidth="1"/>
     <col min="10" max="10" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26559,7 +26560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EB603C-0968-7640-BD10-BA74139AED64}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
